--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H2">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I2">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J2">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.669914006903</v>
+        <v>33.66677566666667</v>
       </c>
       <c r="N2">
-        <v>31.669914006903</v>
+        <v>101.000327</v>
       </c>
       <c r="O2">
-        <v>0.2513638523597295</v>
+        <v>0.26047027611676</v>
       </c>
       <c r="P2">
-        <v>0.2513638523597295</v>
+        <v>0.26047027611676</v>
       </c>
       <c r="Q2">
-        <v>225.023582042612</v>
+        <v>151.6553464458081</v>
       </c>
       <c r="R2">
-        <v>225.023582042612</v>
+        <v>1364.898118012273</v>
       </c>
       <c r="S2">
-        <v>0.1875568313645188</v>
+        <v>0.07477233487784032</v>
       </c>
       <c r="T2">
-        <v>0.1875568313645188</v>
+        <v>0.07477233487784034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H3">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I3">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J3">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.560827007007</v>
+        <v>43.683024</v>
       </c>
       <c r="N3">
-        <v>43.560827007007</v>
+        <v>131.049072</v>
       </c>
       <c r="O3">
-        <v>0.3457419330557818</v>
+        <v>0.3379631431162116</v>
       </c>
       <c r="P3">
-        <v>0.3457419330557818</v>
+        <v>0.3379631431162116</v>
       </c>
       <c r="Q3">
-        <v>309.5118391454649</v>
+        <v>196.774535349392</v>
       </c>
       <c r="R3">
-        <v>309.5118391454649</v>
+        <v>1770.970818144528</v>
       </c>
       <c r="S3">
-        <v>0.2579776719087827</v>
+        <v>0.09701795417963556</v>
       </c>
       <c r="T3">
-        <v>0.2579776719087827</v>
+        <v>0.09701795417963557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H4">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I4">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J4">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.5599426078225</v>
+        <v>17.657557</v>
       </c>
       <c r="N4">
-        <v>16.5599426078225</v>
+        <v>52.97267100000001</v>
       </c>
       <c r="O4">
-        <v>0.1314361310817258</v>
+        <v>0.1366115006935798</v>
       </c>
       <c r="P4">
-        <v>0.1314361310817258</v>
+        <v>0.1366115006935798</v>
       </c>
       <c r="Q4">
-        <v>117.6630161742802</v>
+        <v>79.54022537634766</v>
       </c>
       <c r="R4">
-        <v>117.6630161742802</v>
+        <v>715.8620283871292</v>
       </c>
       <c r="S4">
-        <v>0.09807195442414156</v>
+        <v>0.03921660862925386</v>
       </c>
       <c r="T4">
-        <v>0.09807195442414156</v>
+        <v>0.03921660862925386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H5">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I5">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J5">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.2016327340013</v>
+        <v>34.24645366666667</v>
       </c>
       <c r="N5">
-        <v>34.2016327340013</v>
+        <v>102.739361</v>
       </c>
       <c r="O5">
-        <v>0.2714580835027628</v>
+        <v>0.2649550800734486</v>
       </c>
       <c r="P5">
-        <v>0.2714580835027628</v>
+        <v>0.2649550800734485</v>
       </c>
       <c r="Q5">
-        <v>243.0121505171537</v>
+        <v>154.2665637713821</v>
       </c>
       <c r="R5">
-        <v>243.0121505171537</v>
+        <v>1388.399073942439</v>
       </c>
       <c r="S5">
-        <v>0.2025502772658013</v>
+        <v>0.07605977261665033</v>
       </c>
       <c r="T5">
-        <v>0.2025502772658013</v>
+        <v>0.07605977261665033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.41722307511594</v>
+        <v>7.480073</v>
       </c>
       <c r="H6">
-        <v>2.41722307511594</v>
+        <v>22.440219</v>
       </c>
       <c r="I6">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="J6">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.669914006903</v>
+        <v>33.66677566666667</v>
       </c>
       <c r="N6">
-        <v>31.669914006903</v>
+        <v>101.000327</v>
       </c>
       <c r="O6">
-        <v>0.2513638523597295</v>
+        <v>0.26047027611676</v>
       </c>
       <c r="P6">
-        <v>0.2513638523597295</v>
+        <v>0.26047027611676</v>
       </c>
       <c r="Q6">
-        <v>76.55324692442345</v>
+        <v>251.8299396612903</v>
       </c>
       <c r="R6">
-        <v>76.55324692442345</v>
+        <v>2266.469456951613</v>
       </c>
       <c r="S6">
-        <v>0.06380702099521068</v>
+        <v>0.1241625371074466</v>
       </c>
       <c r="T6">
-        <v>0.06380702099521068</v>
+        <v>0.1241625371074466</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.41722307511594</v>
+        <v>7.480073</v>
       </c>
       <c r="H7">
-        <v>2.41722307511594</v>
+        <v>22.440219</v>
       </c>
       <c r="I7">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="J7">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.560827007007</v>
+        <v>43.683024</v>
       </c>
       <c r="N7">
-        <v>43.560827007007</v>
+        <v>131.049072</v>
       </c>
       <c r="O7">
-        <v>0.3457419330557818</v>
+        <v>0.3379631431162116</v>
       </c>
       <c r="P7">
-        <v>0.3457419330557818</v>
+        <v>0.3379631431162116</v>
       </c>
       <c r="Q7">
-        <v>105.2962362124709</v>
+        <v>326.752208380752</v>
       </c>
       <c r="R7">
-        <v>105.2962362124709</v>
+        <v>2940.769875426768</v>
       </c>
       <c r="S7">
-        <v>0.08776426114699898</v>
+        <v>0.1611023028182517</v>
       </c>
       <c r="T7">
-        <v>0.08776426114699898</v>
+        <v>0.1611023028182517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.41722307511594</v>
+        <v>7.480073</v>
       </c>
       <c r="H8">
-        <v>2.41722307511594</v>
+        <v>22.440219</v>
       </c>
       <c r="I8">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="J8">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.5599426078225</v>
+        <v>17.657557</v>
       </c>
       <c r="N8">
-        <v>16.5599426078225</v>
+        <v>52.97267100000001</v>
       </c>
       <c r="O8">
-        <v>0.1314361310817258</v>
+        <v>0.1366115006935798</v>
       </c>
       <c r="P8">
-        <v>0.1314361310817258</v>
+        <v>0.1366115006935798</v>
       </c>
       <c r="Q8">
-        <v>40.02907539422418</v>
+        <v>132.079815361661</v>
       </c>
       <c r="R8">
-        <v>40.02907539422418</v>
+        <v>1188.718338254949</v>
       </c>
       <c r="S8">
-        <v>0.03336417665758427</v>
+        <v>0.06512079142791354</v>
       </c>
       <c r="T8">
-        <v>0.03336417665758427</v>
+        <v>0.06512079142791354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.480073</v>
+      </c>
+      <c r="H9">
+        <v>22.440219</v>
+      </c>
+      <c r="I9">
+        <v>0.476686011772755</v>
+      </c>
+      <c r="J9">
+        <v>0.476686011772755</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>34.24645366666667</v>
+      </c>
+      <c r="N9">
+        <v>102.739361</v>
+      </c>
+      <c r="O9">
+        <v>0.2649550800734486</v>
+      </c>
+      <c r="P9">
+        <v>0.2649550800734485</v>
+      </c>
+      <c r="Q9">
+        <v>256.1659734177844</v>
+      </c>
+      <c r="R9">
+        <v>2305.493760760059</v>
+      </c>
+      <c r="S9">
+        <v>0.1263003804191432</v>
+      </c>
+      <c r="T9">
+        <v>0.1263003804191432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H10">
+        <v>11.121454</v>
+      </c>
+      <c r="I10">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J10">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>33.66677566666667</v>
+      </c>
+      <c r="N10">
+        <v>101.000327</v>
+      </c>
+      <c r="O10">
+        <v>0.26047027611676</v>
+      </c>
+      <c r="P10">
+        <v>0.26047027611676</v>
+      </c>
+      <c r="Q10">
+        <v>124.8078323017176</v>
+      </c>
+      <c r="R10">
+        <v>1123.270490715458</v>
+      </c>
+      <c r="S10">
+        <v>0.06153540413147308</v>
+      </c>
+      <c r="T10">
+        <v>0.06153540413147309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.41722307511594</v>
-      </c>
-      <c r="H9">
-        <v>2.41722307511594</v>
-      </c>
-      <c r="I9">
-        <v>0.2538432650367555</v>
-      </c>
-      <c r="J9">
-        <v>0.2538432650367555</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>34.2016327340013</v>
-      </c>
-      <c r="N9">
-        <v>34.2016327340013</v>
-      </c>
-      <c r="O9">
-        <v>0.2714580835027628</v>
-      </c>
-      <c r="P9">
-        <v>0.2714580835027628</v>
-      </c>
-      <c r="Q9">
-        <v>82.67297585126862</v>
-      </c>
-      <c r="R9">
-        <v>82.67297585126862</v>
-      </c>
-      <c r="S9">
-        <v>0.06890780623696152</v>
-      </c>
-      <c r="T9">
-        <v>0.06890780623696152</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H11">
+        <v>11.121454</v>
+      </c>
+      <c r="I11">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J11">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>43.683024</v>
+      </c>
+      <c r="N11">
+        <v>131.049072</v>
+      </c>
+      <c r="O11">
+        <v>0.3379631431162116</v>
+      </c>
+      <c r="P11">
+        <v>0.3379631431162116</v>
+      </c>
+      <c r="Q11">
+        <v>161.939580665632</v>
+      </c>
+      <c r="R11">
+        <v>1457.456225990688</v>
+      </c>
+      <c r="S11">
+        <v>0.07984288611832428</v>
+      </c>
+      <c r="T11">
+        <v>0.0798428861183243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H12">
+        <v>11.121454</v>
+      </c>
+      <c r="I12">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J12">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.657557</v>
+      </c>
+      <c r="N12">
+        <v>52.97267100000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1366115006935798</v>
+      </c>
+      <c r="P12">
+        <v>0.1366115006935798</v>
+      </c>
+      <c r="Q12">
+        <v>65.45923597595934</v>
+      </c>
+      <c r="R12">
+        <v>589.133123783634</v>
+      </c>
+      <c r="S12">
+        <v>0.03227410063641244</v>
+      </c>
+      <c r="T12">
+        <v>0.03227410063641244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H13">
+        <v>11.121454</v>
+      </c>
+      <c r="I13">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J13">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.24645366666667</v>
+      </c>
+      <c r="N13">
+        <v>102.739361</v>
+      </c>
+      <c r="O13">
+        <v>0.2649550800734486</v>
+      </c>
+      <c r="P13">
+        <v>0.2649550800734485</v>
+      </c>
+      <c r="Q13">
+        <v>126.9567863723216</v>
+      </c>
+      <c r="R13">
+        <v>1142.611077350894</v>
+      </c>
+      <c r="S13">
+        <v>0.06259492703765508</v>
+      </c>
+      <c r="T13">
+        <v>0.06259492703765508</v>
       </c>
     </row>
   </sheetData>
